--- a/Project3/clustering_all.xlsx
+++ b/Project3/clustering_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSc_Digital_Media_Engineering\2_misseri\02450-Introduction_to_Machine_Learning_and_Data_Mining\Projects\02450_ML\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615AF2CE-DFC6-4D6C-AF56-A4275651149F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329A289-86DA-42DC-A37A-7047895F8E83}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{9E7AB95B-169B-47F4-8312-FF6B2C3A2C4D}"/>
   </bookViews>
@@ -170,6 +170,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -194,61 +205,139 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>10750725.757687129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10713327.310713699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10756136.883133659</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10698733.4195303</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10697442.03117995</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10707993.3942998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>10766560.02073231</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>10717011.36349017</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>10724963.47719175</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10731273.31220019</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>10735987.401108149</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>10769102.94716721</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10784935.598997621</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>10776863.698687181</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>10808158.489731889</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>10819110.425236421</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10853242.90248847</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>10870084.346289679</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>10898226.933608031</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>10938474.96601942</c:v>
                 </c:pt>
               </c:numCache>
@@ -264,6 +353,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -288,61 +388,139 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$21</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>10764514.478848631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10726426.073121101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10768545.686786961</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10710452.2644295</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10708470.91732505</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10718332.3216908</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>10776208.98936921</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>10725970.37337297</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>10733232.52832045</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10738852.40457478</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>10742876.53472865</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>10775302.122033609</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10790444.81510991</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>10781682.956045371</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>10812287.788335981</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>10822549.765086411</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10855992.28358436</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>10872143.76863146</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>10899596.397195719</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>10939154.470853001</c:v>
                 </c:pt>
               </c:numCache>
@@ -358,6 +536,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -382,61 +571,139 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$21</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>10744753.67517034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10744176.21074269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10726586.10746569</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10694551.56015989</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>10697799.22483781</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>10713393.72138009</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>10722666.29419983</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>10713380.14349008</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>10730677.677789049</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10734248.08465297</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>10733455.370909691</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>10762205.645167889</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>10777319.10318807</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>10789523.773890549</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>10798902.53401622</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>10822297.433426131</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10852089.16622467</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>10870855.82865008</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>10899042.29827773</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>10938478.67792852</c:v>
                 </c:pt>
               </c:numCache>
@@ -469,6 +736,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1504,7 +1772,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,6 +1808,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10713327.310713699</v>
+      </c>
+      <c r="C3">
+        <v>10726426.073121101</v>
+      </c>
+      <c r="D3">
+        <v>10744176.21074269</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10756136.883133659</v>
+      </c>
+      <c r="C4">
+        <v>10768545.686786961</v>
+      </c>
+      <c r="D4">
+        <v>10726586.10746569</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
